--- a/admin/upload/%B0༶%BDɷѱ%ED.xlsx
+++ b/admin/upload/%B0༶%BDɷѱ%ED.xlsx
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="166" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="112">
   <si>
     <t>学号</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -71,18 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>专业方向</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>班级</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>金额总数</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>环境工程与土木工程系</t>
   </si>
   <si>
@@ -253,263 +245,551 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>请选择系部…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择专业…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>请选择班级…</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1928</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20145285</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生22</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20145960</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1043</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20145477</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2233</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144869</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生72</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144253</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1115</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147560</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2425</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144297</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2937</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20143632</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1178</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141850</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1770</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20150235</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144647</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2614</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147933</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生936</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20148026</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1990</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20149791</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1753</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20145590</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生302</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147359</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2446</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147309</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1461</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141557</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生794</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20143778</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生855</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144391</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1206</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20142497</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生757</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147597</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生732</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20149511</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1110</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141404</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2966</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20148040</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生397</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20146890</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2433</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141554</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2344</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141859</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2800</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141411</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2269</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141676</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生293</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144372</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1305</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20143503</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1910</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147077</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生64</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147255</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2986</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20148555</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生1266</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20140991</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生500</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20142302</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2796</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20144745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生2977</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20147745</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生373</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 20141316</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> 学生990</t>
+    <t>学生1246</t>
+  </si>
+  <si>
+    <t>学生2350</t>
+  </si>
+  <si>
+    <t>学生2367</t>
+  </si>
+  <si>
+    <t>学生1860</t>
+  </si>
+  <si>
+    <t>学生2574</t>
+  </si>
+  <si>
+    <t>学生1665</t>
+  </si>
+  <si>
+    <t>学生1851</t>
+  </si>
+  <si>
+    <t>学生350</t>
+  </si>
+  <si>
+    <t>学生644</t>
+  </si>
+  <si>
+    <t>学生1325</t>
+  </si>
+  <si>
+    <t>2班</t>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1701</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>448</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>794</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>165</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2477</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>167</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2361</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2549</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1951</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1304</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2514</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2534</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>439</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2488</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1539</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>349</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>584</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>376</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1608</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1102</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2111</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>886</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2914</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>75</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>411</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2099</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1974</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2950</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>2167</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>853</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>574</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>933</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>600</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>362</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>836</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1830</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>1228</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>215</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>学生</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color rgb="FF000000"/>
+        <rFont val="Calibri"/>
+      </rPr>
+      <t>153</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -521,6 +801,17 @@
       <sz val="9"/>
       <name val="宋体"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="新細明體"/>
+      <charset val="136"/>
     </font>
   </fonts>
   <fills count="2">
@@ -545,19 +836,16 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="一般" xfId="0" builtinId="0"/>
@@ -959,8 +1247,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:Q67"/>
   <sheetViews>
-    <sheetView tabSelected="1" showRuler="0" topLeftCell="A24" workbookViewId="0">
-      <selection activeCell="D41" sqref="D41"/>
+    <sheetView tabSelected="1" showRuler="0" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3:B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -1002,10 +1290,10 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="B3" s="3" t="s">
+      <c r="A3" s="3">
+        <v>2014146640</v>
+      </c>
+      <c r="B3" s="4" t="s">
         <v>73</v>
       </c>
       <c r="C3">
@@ -1013,699 +1301,743 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="3">
+        <v>2014971317</v>
+      </c>
+      <c r="B4" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4">
+      <c r="A5" s="3">
+        <v>2014754739</v>
+      </c>
+      <c r="B5" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="C4">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4">
-      <c r="A5" s="3" t="s">
+      <c r="C5">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4">
+      <c r="A6" s="3">
+        <v>2014159130</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="B5" s="3" t="s">
+      <c r="C6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="A7" s="3">
+        <v>2014176457</v>
+      </c>
+      <c r="B7" s="4" t="s">
         <v>77</v>
       </c>
-      <c r="C5">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4">
-      <c r="A6" s="3" t="s">
+      <c r="C7">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="A8" s="3">
+        <v>2014097157</v>
+      </c>
+      <c r="B8" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C8">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9" s="3">
+        <v>2014181853</v>
+      </c>
+      <c r="B9" s="4" t="s">
         <v>79</v>
       </c>
-      <c r="C6">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4">
-      <c r="A7" s="3" t="s">
+      <c r="C9">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10" s="3">
+        <v>2014841226</v>
+      </c>
+      <c r="B10" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="C10">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11" s="3">
+        <v>2014725747</v>
+      </c>
+      <c r="B11" s="4" t="s">
         <v>81</v>
       </c>
-      <c r="C7">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4">
-      <c r="A8" s="3" t="s">
+      <c r="C11">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12" s="3">
+        <v>2014353341</v>
+      </c>
+      <c r="B12" s="4" t="s">
         <v>82</v>
       </c>
-      <c r="B8" s="3" t="s">
+      <c r="C12">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13" s="3">
+        <v>2014908363</v>
+      </c>
+      <c r="B13" s="4" t="s">
         <v>83</v>
       </c>
-      <c r="C8">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4">
-      <c r="A9" s="3" t="s">
+      <c r="C13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14" s="3">
+        <v>2014716199</v>
+      </c>
+      <c r="B14" s="4" t="s">
         <v>84</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C14">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15" s="3">
+        <v>2014959619</v>
+      </c>
+      <c r="B15" s="4" t="s">
         <v>85</v>
       </c>
-      <c r="C9">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4">
-      <c r="A10" s="3" t="s">
+      <c r="C15">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16" s="3">
+        <v>2014848214</v>
+      </c>
+      <c r="B16" s="4" t="s">
         <v>86</v>
       </c>
-      <c r="B10" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="C10">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" s="3" t="s">
+      <c r="C16">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3">
+      <c r="A17" s="3">
+        <v>2014407026</v>
+      </c>
+      <c r="B17" s="4" t="s">
         <v>87</v>
       </c>
-      <c r="B11" s="3" t="s">
+      <c r="C17">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3">
+      <c r="A18" s="3">
+        <v>2014695864</v>
+      </c>
+      <c r="B18" s="4" t="s">
         <v>88</v>
       </c>
-      <c r="C11">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4">
-      <c r="A12" s="3" t="s">
+      <c r="C18">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3">
+      <c r="A19" s="3">
+        <v>2014320423</v>
+      </c>
+      <c r="B19" s="4" t="s">
         <v>89</v>
       </c>
-      <c r="B12" s="3" t="s">
+      <c r="C19">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3">
+      <c r="A20" s="3">
+        <v>2014193302</v>
+      </c>
+      <c r="B20" s="4" t="s">
         <v>90</v>
       </c>
-      <c r="C12">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4">
-      <c r="A13" s="3" t="s">
+      <c r="C20">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3">
+      <c r="A21" s="3">
+        <v>2014503390</v>
+      </c>
+      <c r="B21" s="4" t="s">
         <v>91</v>
       </c>
-      <c r="B13" s="3" t="s">
+      <c r="C21">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3">
+      <c r="A22" s="3">
+        <v>2014518075</v>
+      </c>
+      <c r="B22" s="4" t="s">
         <v>92</v>
       </c>
-      <c r="C13">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4">
-      <c r="A14" s="3" t="s">
+      <c r="C22">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3">
+      <c r="A23" s="3">
+        <v>2014940797</v>
+      </c>
+      <c r="B23" s="4" t="s">
         <v>93</v>
       </c>
-      <c r="B14" s="3" t="s">
+      <c r="C23">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3">
+      <c r="A24" s="3">
+        <v>2014680717</v>
+      </c>
+      <c r="B24" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="C14">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4">
-      <c r="A15" s="3" t="s">
+      <c r="C24">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3">
+      <c r="A25" s="3">
+        <v>2014152888</v>
+      </c>
+      <c r="B25" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B15" s="3" t="s">
+      <c r="C25">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3">
+      <c r="A26" s="3">
+        <v>2014954216</v>
+      </c>
+      <c r="B26" s="4" t="s">
         <v>96</v>
       </c>
-      <c r="C15">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4">
-      <c r="A16" s="3" t="s">
+      <c r="C26">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3">
+      <c r="A27" s="3">
+        <v>2014398058</v>
+      </c>
+      <c r="B27" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B16" s="3" t="s">
+      <c r="C27">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3">
+      <c r="A28" s="3">
+        <v>2014512385</v>
+      </c>
+      <c r="B28" s="4" t="s">
         <v>98</v>
       </c>
-      <c r="C16">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3">
-      <c r="A17" s="3" t="s">
+      <c r="C28">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3">
+      <c r="A29" s="3">
+        <v>2014335533</v>
+      </c>
+      <c r="B29" s="4" t="s">
         <v>99</v>
       </c>
-      <c r="B17" s="3" t="s">
+      <c r="C29">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3">
+      <c r="A30" s="3">
+        <v>2014495245</v>
+      </c>
+      <c r="B30" s="4" t="s">
         <v>100</v>
       </c>
-      <c r="C17">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3">
-      <c r="A18" s="3" t="s">
+      <c r="C30">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3">
+      <c r="A31" s="3">
+        <v>2014683940</v>
+      </c>
+      <c r="B31" s="4" t="s">
         <v>101</v>
       </c>
-      <c r="B18" s="3" t="s">
+      <c r="C31">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3">
+      <c r="A32" s="3">
+        <v>2014977047</v>
+      </c>
+      <c r="B32" s="4" t="s">
         <v>102</v>
       </c>
-      <c r="C18">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3">
-      <c r="A19" s="3" t="s">
+      <c r="C32">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14">
+      <c r="A33" s="3">
+        <v>2014796864</v>
+      </c>
+      <c r="B33" s="4" t="s">
         <v>103</v>
-      </c>
-      <c r="B19" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="C19">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3">
-      <c r="A20" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="B20" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="C20">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3">
-      <c r="A21" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="C21">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3">
-      <c r="A22" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="C22">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3">
-      <c r="A23" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="C23">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3">
-      <c r="A24" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="C24">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3">
-      <c r="A25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="B25" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="C25">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3">
-      <c r="A26" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="B26" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="C26">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3">
-      <c r="A27" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C27">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3">
-      <c r="A28" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="B28" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C28">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3">
-      <c r="A29" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="B29" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C29">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3">
-      <c r="A30" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="B30" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="C30">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3">
-      <c r="A31" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="B31" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="C31">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3">
-      <c r="A32" s="3" t="s">
-        <v>129</v>
-      </c>
-      <c r="B32" s="3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C32">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="33" spans="1:14">
-      <c r="A33" s="3" t="s">
-        <v>131</v>
-      </c>
-      <c r="B33" s="3" t="s">
-        <v>132</v>
       </c>
       <c r="C33">
         <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="3" t="s">
-        <v>133</v>
-      </c>
-      <c r="B34" s="3" t="s">
-        <v>134</v>
+      <c r="A34" s="3">
+        <v>2014647679</v>
+      </c>
+      <c r="B34" s="4" t="s">
+        <v>104</v>
       </c>
       <c r="C34">
         <v>150</v>
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="3" t="s">
-        <v>135</v>
-      </c>
-      <c r="B35" s="3" t="s">
-        <v>136</v>
+      <c r="A35" s="3">
+        <v>2014396516</v>
+      </c>
+      <c r="B35" s="4" t="s">
+        <v>105</v>
       </c>
       <c r="C35">
         <v>150</v>
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="3" t="s">
-        <v>137</v>
-      </c>
-      <c r="B36" s="3" t="s">
-        <v>138</v>
+      <c r="A36" s="3">
+        <v>2014701831</v>
+      </c>
+      <c r="B36" s="4" t="s">
+        <v>106</v>
       </c>
       <c r="C36">
         <v>150</v>
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="3" t="s">
-        <v>139</v>
-      </c>
-      <c r="B37" s="3" t="s">
-        <v>140</v>
+      <c r="A37" s="3">
+        <v>2014972559</v>
+      </c>
+      <c r="B37" s="4" t="s">
+        <v>107</v>
       </c>
       <c r="C37">
         <v>150</v>
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="3" t="s">
-        <v>141</v>
-      </c>
-      <c r="B38" s="3" t="s">
-        <v>142</v>
+      <c r="A38" s="3">
+        <v>2014741715</v>
+      </c>
+      <c r="B38" s="4" t="s">
+        <v>108</v>
       </c>
       <c r="C38">
         <v>150</v>
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="3" t="s">
-        <v>143</v>
-      </c>
-      <c r="B39" s="3" t="s">
-        <v>144</v>
+      <c r="A39" s="3">
+        <v>2014724001</v>
+      </c>
+      <c r="B39" s="4" t="s">
+        <v>109</v>
       </c>
       <c r="C39">
         <v>150</v>
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="3" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="3" t="s">
-        <v>146</v>
+      <c r="A40" s="3">
+        <v>2014854890</v>
+      </c>
+      <c r="B40" s="4" t="s">
+        <v>110</v>
       </c>
       <c r="C40">
         <v>150</v>
       </c>
     </row>
     <row r="41" spans="1:14">
-      <c r="A41" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="B41" s="1" t="s">
-        <v>69</v>
+      <c r="A41" s="3">
+        <v>2014269195</v>
+      </c>
+      <c r="B41" s="4" t="s">
+        <v>111</v>
       </c>
       <c r="C41">
         <v>150</v>
       </c>
     </row>
     <row r="42" spans="1:14">
-      <c r="A42" s="1" t="s">
-        <v>70</v>
+      <c r="A42" s="1">
+        <v>2014454689</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>71</v>
+        <v>62</v>
       </c>
       <c r="C42">
         <v>150</v>
       </c>
     </row>
+    <row r="43" spans="1:14">
+      <c r="A43" s="1">
+        <v>2014547049</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
     <row r="44" spans="1:14">
-      <c r="A44" t="s">
-        <v>5</v>
-      </c>
-      <c r="B44" t="s">
+      <c r="A44" s="1">
+        <v>2014276775</v>
+      </c>
+      <c r="B44" s="1" t="s">
         <v>64</v>
       </c>
       <c r="C44" t="s">
         <v>6</v>
       </c>
       <c r="D44" t="s">
-        <v>65</v>
+        <v>15</v>
       </c>
       <c r="G44" t="s">
         <v>5</v>
       </c>
       <c r="H44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="I44" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="J44" t="s">
+        <v>29</v>
+      </c>
+      <c r="K44" t="s">
+        <v>35</v>
+      </c>
+      <c r="L44" t="s">
+        <v>43</v>
+      </c>
+      <c r="M44" t="s">
+        <v>50</v>
+      </c>
+      <c r="N44" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14">
+      <c r="A45" s="1">
+        <v>2014824540</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="G45" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" t="s">
+        <v>9</v>
+      </c>
+      <c r="I45" t="s">
+        <v>21</v>
+      </c>
+      <c r="J45" t="s">
+        <v>21</v>
+      </c>
+      <c r="K45" t="s">
+        <v>38</v>
+      </c>
+      <c r="L45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" t="s">
+        <v>51</v>
+      </c>
+      <c r="N45" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14">
+      <c r="A46" s="1">
+        <v>2014393943</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>72</v>
+      </c>
+      <c r="G46" t="s">
+        <v>20</v>
+      </c>
+      <c r="H46" t="s">
+        <v>13</v>
+      </c>
+      <c r="I46" t="s">
+        <v>25</v>
+      </c>
+      <c r="J46" t="s">
         <v>31</v>
       </c>
-      <c r="K44" t="s">
-        <v>37</v>
-      </c>
-      <c r="L44" t="s">
-        <v>45</v>
-      </c>
-      <c r="M44" t="s">
-        <v>52</v>
-      </c>
-      <c r="N44" t="s">
+      <c r="K46" t="s">
+        <v>41</v>
+      </c>
+      <c r="L46" t="s">
+        <v>46</v>
+      </c>
+      <c r="M46" t="s">
+        <v>54</v>
+      </c>
+      <c r="N46" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="45" spans="1:14">
-      <c r="G45" t="s">
-        <v>10</v>
-      </c>
-      <c r="H45" t="s">
-        <v>11</v>
-      </c>
-      <c r="I45" t="s">
-        <v>23</v>
-      </c>
-      <c r="J45" t="s">
-        <v>23</v>
-      </c>
-      <c r="K45" t="s">
-        <v>40</v>
-      </c>
-      <c r="L45" t="s">
-        <v>46</v>
-      </c>
-      <c r="M45" t="s">
-        <v>53</v>
-      </c>
-      <c r="N45" t="s">
+    <row r="47" spans="1:14">
+      <c r="A47" s="1">
+        <v>2014546623</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="G47" t="s">
+        <v>29</v>
+      </c>
+      <c r="H47" t="s">
+        <v>14</v>
+      </c>
+      <c r="I47" t="s">
+        <v>26</v>
+      </c>
+      <c r="J47" t="s">
+        <v>32</v>
+      </c>
+      <c r="K47" t="s">
+        <v>42</v>
+      </c>
+      <c r="L47" t="s">
+        <v>47</v>
+      </c>
+      <c r="N47" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="46" spans="1:14">
-      <c r="A46" t="s">
-        <v>7</v>
-      </c>
-      <c r="C46" t="s">
-        <v>8</v>
-      </c>
-      <c r="D46" t="s">
-        <v>66</v>
-      </c>
-      <c r="G46" t="s">
-        <v>22</v>
-      </c>
-      <c r="H46" t="s">
+    <row r="48" spans="1:14">
+      <c r="A48" s="1">
+        <v>2015020871</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="G48" t="s">
+        <v>35</v>
+      </c>
+      <c r="H48" t="s">
         <v>15</v>
       </c>
-      <c r="I46" t="s">
+      <c r="I48" t="s">
         <v>27</v>
       </c>
-      <c r="J46" t="s">
-        <v>33</v>
-      </c>
-      <c r="K46" t="s">
+      <c r="J48" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17">
+      <c r="A49" s="1">
+        <v>2014705689</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="G49" t="s">
         <v>43</v>
       </c>
-      <c r="L46" t="s">
-        <v>48</v>
-      </c>
-      <c r="M46" t="s">
+      <c r="H49" t="s">
+        <v>19</v>
+      </c>
+      <c r="I49" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17">
+      <c r="A50" s="1">
+        <v>2014750314</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="G50" t="s">
+        <v>50</v>
+      </c>
+      <c r="H50" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17">
+      <c r="A51" s="1">
+        <v>2014529427</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="G51" t="s">
         <v>56</v>
       </c>
-      <c r="N46" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="47" spans="1:14">
-      <c r="G47" t="s">
-        <v>31</v>
-      </c>
-      <c r="H47" t="s">
-        <v>16</v>
-      </c>
-      <c r="I47" t="s">
-        <v>28</v>
-      </c>
-      <c r="J47" t="s">
-        <v>34</v>
-      </c>
-      <c r="K47" t="s">
+    </row>
+    <row r="64" spans="1:17">
+      <c r="G64" t="s">
+        <v>9</v>
+      </c>
+      <c r="H64" t="s">
+        <v>15</v>
+      </c>
+      <c r="I64" t="s">
+        <v>21</v>
+      </c>
+      <c r="J64" t="s">
+        <v>61</v>
+      </c>
+      <c r="K64" t="s">
+        <v>32</v>
+      </c>
+      <c r="L64" t="s">
+        <v>36</v>
+      </c>
+      <c r="M64" t="s">
         <v>44</v>
       </c>
-      <c r="L47" t="s">
-        <v>49</v>
-      </c>
-      <c r="N47" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="48" spans="1:14">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="G48" t="s">
-        <v>37</v>
-      </c>
-      <c r="H48" t="s">
-        <v>17</v>
-      </c>
-      <c r="I48" t="s">
-        <v>29</v>
-      </c>
-      <c r="J48" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="49" spans="7:17">
-      <c r="G49" t="s">
-        <v>45</v>
-      </c>
-      <c r="H49" t="s">
-        <v>21</v>
-      </c>
-      <c r="I49" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="50" spans="7:17">
-      <c r="G50" t="s">
-        <v>52</v>
-      </c>
-      <c r="H50" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="51" spans="7:17">
-      <c r="G51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="64" spans="7:17">
-      <c r="G64" t="s">
-        <v>11</v>
-      </c>
-      <c r="H64" t="s">
-        <v>17</v>
-      </c>
-      <c r="I64" t="s">
-        <v>23</v>
-      </c>
-      <c r="J64" t="s">
-        <v>63</v>
-      </c>
-      <c r="K64" t="s">
-        <v>34</v>
-      </c>
-      <c r="L64" t="s">
-        <v>38</v>
-      </c>
-      <c r="M64" t="s">
-        <v>46</v>
-      </c>
       <c r="N64" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="O64" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="P64" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="Q64" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="7:17">
       <c r="G65" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="I65" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="J65" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="K65" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="L65" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="M65" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="N65" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="O65" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="P65" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="Q65" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="66" spans="7:17">
       <c r="G66" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="H66" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="L66" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="M66" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N66" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="O66" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="67" spans="7:17">
       <c r="G67" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="I67" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="L67" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>
